--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79017.4035618317</v>
+        <v>79017.40356183177</v>
       </c>
     </row>
     <row r="7">
@@ -22565,31 +22565,31 @@
         <v>338.9889007429445</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>208.6467463822455</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0190258115284</v>
+        <v>177.0190258115283</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>214.0546037115792</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>228.2791569798279</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>222.0152160730528</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>220.9472418750054</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>222.1041760324342</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>224.4102714990878</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.1821080973806</v>
+        <v>217.1821080973804</v>
       </c>
       <c r="R2" t="n">
         <v>212.6051885295649</v>
@@ -22644,34 +22644,34 @@
         <v>111.9902728985985</v>
       </c>
       <c r="I3" t="n">
-        <v>98.64835865463272</v>
+        <v>98.6483586546327</v>
       </c>
       <c r="J3" t="n">
         <v>124.4392452907996</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>133.742223194437</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>133.0424782891216</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>135.7019048619076</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>124.7393437063988</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>136.5563672569107</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>129.1268734863555</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>136.7413260305349</v>
       </c>
       <c r="R3" t="n">
-        <v>144.1033706945348</v>
+        <v>144.1033706945347</v>
       </c>
       <c r="S3" t="n">
         <v>171.2116449385346</v>
@@ -22729,13 +22729,13 @@
         <v>125.4907540397727</v>
       </c>
       <c r="K4" t="n">
-        <v>126.5406274173932</v>
+        <v>126.5406274173931</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>131.7205602141891</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>135.5896671967105</v>
       </c>
       <c r="N4" t="n">
         <v>124.4287531140874</v>
@@ -22744,10 +22744,10 @@
         <v>135.4483645121045</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1539915655949</v>
+        <v>135.1539915655948</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.7228888072868</v>
+        <v>149.7228888072867</v>
       </c>
       <c r="R4" t="n">
         <v>176.3364561889816</v>
@@ -22811,16 +22811,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -22905,7 +22905,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>114.3252943440434</v>
@@ -22972,7 +22972,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -23042,7 +23042,7 @@
         <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -23051,7 +23051,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -23066,7 +23066,7 @@
         <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -23121,7 +23121,7 @@
         <v>80.20868489375378</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -23215,10 +23215,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>112.1247463593087</v>
@@ -23279,28 +23279,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>134.8218408634681</v>
@@ -23355,13 +23355,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,10 +23376,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>102.9682853879423</v>
@@ -23437,25 +23437,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>103.2119976362414</v>
@@ -23516,28 +23516,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>134.8218408634681</v>
@@ -23592,13 +23592,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,10 +23613,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>102.9682853879423</v>
@@ -23674,25 +23674,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>103.2119976362414</v>
@@ -23753,28 +23753,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>134.8218408634681</v>
@@ -23829,13 +23829,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,10 +23850,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>102.9682853879423</v>
@@ -23911,25 +23911,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>103.2119976362414</v>
@@ -23990,28 +23990,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>134.8218408634681</v>
@@ -24066,13 +24066,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,10 +24087,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>102.9682853879423</v>
@@ -24148,25 +24148,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>103.2119976362414</v>
@@ -24227,7 +24227,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
         <v>56.54227989916996</v>
@@ -24236,13 +24236,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
         <v>46.34579576917247</v>
@@ -24303,10 +24303,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
         <v>26.75787480980772</v>
@@ -24385,7 +24385,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K25" t="n">
         <v>62.00809140979796</v>
@@ -24400,10 +24400,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>103.2119976362414</v>
@@ -24464,28 +24464,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>134.8218408634681</v>
@@ -24540,13 +24540,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,10 +24561,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>102.9682853879423</v>
@@ -24622,25 +24622,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>103.2119976362414</v>
@@ -24701,28 +24701,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>134.8218408634681</v>
@@ -24777,13 +24777,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,10 +24798,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>102.9682853879423</v>
@@ -24859,25 +24859,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>103.2119976362414</v>
@@ -24938,28 +24938,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>134.8218408634681</v>
@@ -25014,13 +25014,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,10 +25035,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>102.9682853879423</v>
@@ -25096,25 +25096,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>103.2119976362414</v>
@@ -25175,28 +25175,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>134.8218408634681</v>
@@ -25251,13 +25251,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,10 +25272,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>102.9682853879423</v>
@@ -25333,25 +25333,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>103.2119976362414</v>
@@ -25412,28 +25412,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>134.8218408634681</v>
@@ -25488,13 +25488,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,10 +25509,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>102.9682853879423</v>
@@ -25570,25 +25570,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>103.2119976362414</v>
@@ -25649,28 +25649,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>134.8218408634681</v>
@@ -25725,13 +25725,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,10 +25746,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>102.9682853879423</v>
@@ -25807,25 +25807,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>103.2119976362414</v>
@@ -25886,28 +25886,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>134.8218408634681</v>
@@ -25962,13 +25962,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,10 +25983,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>102.9682853879423</v>
@@ -26044,25 +26044,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>103.2119976362414</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10095.26024411692</v>
+        <v>10095.26024411714</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>222216.1740516906</v>
+        <v>222216.1740516905</v>
       </c>
     </row>
     <row r="5">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2523.815061029231</v>
+        <v>2523.815061029283</v>
       </c>
       <c r="C2" t="n">
-        <v>50206.5580368599</v>
+        <v>50206.55803685988</v>
       </c>
       <c r="D2" t="n">
-        <v>55554.04351292269</v>
+        <v>55554.04351292268</v>
       </c>
       <c r="E2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537068</v>
       </c>
       <c r="F2" t="n">
-        <v>66735.59833537065</v>
+        <v>66735.59833537068</v>
       </c>
       <c r="G2" t="n">
-        <v>66735.59833537065</v>
+        <v>66735.59833537068</v>
       </c>
       <c r="H2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537068</v>
       </c>
       <c r="I2" t="n">
         <v>66735.59833537065</v>
       </c>
       <c r="J2" t="n">
+        <v>66735.59833537068</v>
+      </c>
+      <c r="K2" t="n">
         <v>66735.59833537065</v>
       </c>
-      <c r="K2" t="n">
-        <v>66735.59833537067</v>
-      </c>
       <c r="L2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537064</v>
       </c>
       <c r="M2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537065</v>
       </c>
       <c r="N2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537065</v>
       </c>
       <c r="O2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537065</v>
       </c>
       <c r="P2" t="n">
-        <v>66735.59833537067</v>
+        <v>66735.59833537065</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807397</v>
+        <v>11372.62968807423</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>203044.1822108269</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>47420.72226727411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33884.88516240443</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26476,40 +26476,40 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42733.69978944915</v>
+        <v>-42733.69978944937</v>
       </c>
       <c r="C6" t="n">
-        <v>-191583.4290051139</v>
+        <v>-191583.4290051137</v>
       </c>
       <c r="D6" t="n">
-        <v>-6039.68797377497</v>
+        <v>-6039.687973774977</v>
       </c>
       <c r="E6" t="n">
-        <v>12342.77350483918</v>
+        <v>12342.77350483924</v>
       </c>
       <c r="F6" t="n">
-        <v>59763.49577211333</v>
+        <v>59763.49577211335</v>
       </c>
       <c r="G6" t="n">
-        <v>59763.49577211333</v>
+        <v>59763.49577211335</v>
       </c>
       <c r="H6" t="n">
-        <v>59763.49577211334</v>
+        <v>59763.49577211335</v>
       </c>
       <c r="I6" t="n">
         <v>59763.49577211333</v>
       </c>
       <c r="J6" t="n">
+        <v>59763.49577211335</v>
+      </c>
+      <c r="K6" t="n">
         <v>59763.49577211333</v>
       </c>
-      <c r="K6" t="n">
-        <v>59763.49577211334</v>
-      </c>
       <c r="L6" t="n">
-        <v>59763.49577211334</v>
+        <v>59763.49577211331</v>
       </c>
       <c r="M6" t="n">
-        <v>59763.49577211334</v>
+        <v>59763.49577211333</v>
       </c>
       <c r="N6" t="n">
-        <v>59763.49577211334</v>
+        <v>59763.49577211333</v>
       </c>
       <c r="O6" t="n">
-        <v>59763.49577211334</v>
+        <v>59763.49577211333</v>
       </c>
       <c r="P6" t="n">
-        <v>59763.49577211334</v>
+        <v>59763.49577211333</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>11.80207166992787</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>11.80207166992787</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>222.9779664560663</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>59.02482598057776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0.04744551425096627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0.4859013728227085</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>1.829143188160379</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>4.026878715157952</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>6.035247333401356</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>7.487257990159367</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>8.331017154219987</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>8.465821721585547</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>7.9940353892525</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>6.822724256181769</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>5.123581777069037</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>2.980349284567263</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>1.081164655993895</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0.207692738633605</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0.003795641140077301</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0.02538558812022221</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0.2451713378979356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0.8740213453672999</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>2.398381375867135</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>4.099215779922023</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>5.511901490752634</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>6.432129060110688</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>6.60236837693446</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>6.039877187533746</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>4.847533927974713</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>3.240448055486611</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>1.576133269429236</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0.47152616530325</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0.1023217345722991</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0.001670104481593567</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0.02128242432282075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0.1892200998883519</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0.6400205423626459</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>1.504667399623427</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>2.472630753142264</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>3.164116067049187</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>3.336116750894528</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>3.256791351145835</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>3.008173939738337</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>2.574012483552792</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>1.782112822159108</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0.9569351881879217</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0.3708946129713396</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0.09093399483387044</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0.001160859508517497</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31522,7 +31522,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31546,7 +31546,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31555,7 +31555,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,7 +31595,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31628,7 +31628,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31680,7 +31680,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31695,13 +31695,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31756,16 +31756,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31783,13 +31783,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31856,22 +31856,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31993,16 +31993,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32020,13 +32020,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32093,22 +32093,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32230,16 +32230,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32257,13 +32257,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32330,22 +32330,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32467,16 +32467,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32494,13 +32494,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32567,22 +32567,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32707,7 +32707,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
@@ -32731,13 +32731,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32786,7 +32786,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32816,7 +32816,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
         <v>0.04525771959877963</v>
@@ -32859,13 +32859,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
         <v>67.00516676073742</v>
@@ -32880,10 +32880,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
         <v>48.29300399320443</v>
@@ -32941,16 +32941,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32968,13 +32968,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33041,22 +33041,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33178,16 +33178,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33205,13 +33205,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33278,22 +33278,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33415,16 +33415,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33442,13 +33442,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33515,22 +33515,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33652,16 +33652,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33679,13 +33679,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33752,22 +33752,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33889,16 +33889,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33916,13 +33916,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33989,22 +33989,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34126,16 +34126,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34153,13 +34153,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34226,22 +34226,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34363,16 +34363,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34390,13 +34390,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34463,22 +34463,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79017.40356183177</v>
+        <v>102549.5937605966</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24295412.1082302</v>
+        <v>24255452.07577357</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2724915.440346564</v>
+        <v>2734613.38544369</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2552920008841</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822455</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0190258115283</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115792</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.2791569798279</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730528</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750054</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324342</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990878</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.1821080973804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>212.6051885295649</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,49 +22640,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>98.6483586546327</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>133.742223194437</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891216</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619076</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7393437063988</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569107</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863555</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.7413260305349</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>144.1033706945347</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>125.4907540397727</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>126.5406274173931</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141891</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967105</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1539915655948</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.7228888072867</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22811,16 +22813,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -22905,7 +22907,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>114.3252943440434</v>
@@ -22972,7 +22974,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -23033,49 +23035,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3438031062408</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.6541151006791</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>173.5065707715111</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>99.6575452397996</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>98.10979822960111</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>84.43937323841098</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>61.96574170152374</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>58.30799968157118</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>68.52855153510899</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>93.33702908826811</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>118.7515617259727</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629756</v>
+        <v>155.3488742514299</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.1683517435681</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.8981141891969</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.268938155125</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,49 +23114,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8304420216971</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.2802185276682</v>
       </c>
       <c r="I9" t="n">
-        <v>80.20868489375378</v>
+        <v>81.85729289087121</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>78.36327744147644</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>54.99105526776093</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>27.15181451396067</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.13249477623867</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>20.52261636687632</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>35.99955868092266</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>74.48818233773051</v>
       </c>
       <c r="R9" t="n">
-        <v>110.8508838462542</v>
+        <v>113.823838598763</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.1530253831804</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.0966758217911</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9076271374542</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5608343951249</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4027927425254</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.5148427571804</v>
       </c>
       <c r="J10" t="n">
-        <v>93.74601906876785</v>
+        <v>96.58417253168884</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>79.03823424865047</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>70.93385145975894</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>71.49860574063624</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>61.86163384887251</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>77.6575030889737</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>85.70392593829028</v>
       </c>
       <c r="Q10" t="n">
-        <v>112.1247463593087</v>
+        <v>115.4862265633674</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>157.952509662174</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.5203444486895</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1076973122184</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2955669039454</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330534</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>86.22083756629321</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10095.26024411714</v>
+        <v>-9.677023626863955e-12</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>222216.1740516905</v>
+        <v>203913.406004969</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>266942.3933414825</v>
+        <v>271173.6972136964</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2523.815061029283</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50206.55803685988</v>
+        <v>50206.5580368599</v>
       </c>
       <c r="D2" t="n">
-        <v>55554.04351292268</v>
+        <v>50978.35150124226</v>
       </c>
       <c r="E2" t="n">
-        <v>66735.59833537068</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="F2" t="n">
-        <v>66735.59833537068</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="G2" t="n">
-        <v>66735.59833537068</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="H2" t="n">
-        <v>66735.59833537068</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="I2" t="n">
-        <v>66735.59833537065</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="J2" t="n">
-        <v>66735.59833537068</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="K2" t="n">
-        <v>66735.59833537065</v>
+        <v>67793.42430342414</v>
       </c>
       <c r="L2" t="n">
-        <v>66735.59833537064</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="M2" t="n">
-        <v>66735.59833537065</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="N2" t="n">
-        <v>66735.59833537065</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="O2" t="n">
-        <v>66735.59833537065</v>
+        <v>67793.42430342412</v>
       </c>
       <c r="P2" t="n">
-        <v>66735.59833537065</v>
+        <v>67793.42430342412</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807423</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108269</v>
+        <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>3215.745576977194</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727411</v>
+        <v>70525.3614094212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240443</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38827.66156583119</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42733.69978944937</v>
+        <v>-33627.6</v>
       </c>
       <c r="C6" t="n">
-        <v>-191583.4290051137</v>
+        <v>-202330.4190718933</v>
       </c>
       <c r="D6" t="n">
-        <v>-6039.687973774977</v>
+        <v>8934.944358433888</v>
       </c>
       <c r="E6" t="n">
-        <v>12342.77350483924</v>
+        <v>-9845.674471800854</v>
       </c>
       <c r="F6" t="n">
-        <v>59763.49577211335</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="G6" t="n">
-        <v>59763.49577211335</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="H6" t="n">
-        <v>59763.49577211335</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="I6" t="n">
-        <v>59763.49577211333</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="J6" t="n">
-        <v>59763.49577211335</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="K6" t="n">
-        <v>59763.49577211333</v>
+        <v>60679.68693762035</v>
       </c>
       <c r="L6" t="n">
-        <v>59763.49577211331</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="M6" t="n">
-        <v>59763.49577211333</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="N6" t="n">
-        <v>59763.49577211333</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="O6" t="n">
-        <v>59763.49577211333</v>
+        <v>60679.68693762034</v>
       </c>
       <c r="P6" t="n">
-        <v>59763.49577211333</v>
+        <v>60679.68693762034</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992787</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>238.5349342124398</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992787</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560663</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>3.754896086445567</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057776</v>
+        <v>87.7832935767245</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096627</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728227085</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160379</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157952</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.035247333401356</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159367</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219987</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585547</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.9940353892525</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181769</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777069037</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567263</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993895</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.207692738633605</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077301</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022221</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979356</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672999</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867135</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779922023</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752634</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110688</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.60236837693446</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533746</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974713</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486611</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429236</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.47152616530325</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1023217345722991</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593567</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02128242432282075</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883519</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623427</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142264</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049187</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894528</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145835</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738337</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552792</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159108</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879217</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713396</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483387044</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517497</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9589344088942294</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.82068701508803</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>36.96931879889482</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>81.38835928688668</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>121.9800528153794</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>151.3270417315763</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>168.380491525749</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>171.1050639150197</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>161.5696598865777</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>137.8959666670014</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>103.5541281484768</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>60.2366635627022</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.85171784267728</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.197735374934492</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.07671475271153834</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5130751415135497</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>4.95522570882823</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.6650871091288</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>48.47434922519025</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>82.85038370659807</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>111.4025652659135</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>130.0015391457796</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>122.0736280775681</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>97.97484873340758</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>65.49359174829101</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.85566536520093</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>9.530145720657375</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.068052873030491</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03375494352062829</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4301449633339077</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.8243797649142</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.93563217007788</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>30.41124890770728</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>49.9750239218849</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>63.95082482147934</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>67.42717820696882</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>65.82391061636068</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>60.79903536286909</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>52.02407811085733</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>36.0187750660784</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.34088171499552</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.496253588282735</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.83789211606306</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.0234624525454859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102549.5937605966</v>
+        <v>-36114.06461502427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12204903.82479207</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24255452.07577357</v>
+        <v>22984264.03540102</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2734613.38544369</v>
+        <v>3498052.163818506</v>
       </c>
     </row>
     <row r="11">
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>95.50771753390018</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>56.29524403393701</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.54182911310819</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>99.3870939077122</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>83.93651754288223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>67.99165989453411</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>92.87880449446456</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>118.4074541392577</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.67399088986288</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>70.72134458638541</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10521,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,31 +22570,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22655,16 +22655,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -22728,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>100.0299464227919</v>
@@ -22822,16 +22822,16 @@
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>156.2970892917925</v>
+        <v>90.58066941881003</v>
       </c>
       <c r="S5" t="n">
         <v>187.5123304152058</v>
@@ -22883,31 +22883,31 @@
         <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13536774255608</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>28.9054572569747</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>14.17891314335148</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>22.44423757443681</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>114.3252943440434</v>
@@ -22965,19 +22965,19 @@
         <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>63.42664968215053</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>71.94053294496763</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>62.89780050171085</v>
       </c>
       <c r="O7" t="n">
         <v>78.61457070130248</v>
@@ -22986,7 +22986,7 @@
         <v>86.52286261917671</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R7" t="n">
         <v>158.2569640235438</v>
@@ -23035,49 +23035,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.3438031062408</v>
+        <v>414.3406165929539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.6541151006791</v>
+        <v>329.6214812214793</v>
       </c>
       <c r="I8" t="n">
-        <v>173.5065707715111</v>
+        <v>173.3837227180163</v>
       </c>
       <c r="J8" t="n">
-        <v>99.6575452397996</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>98.10979822960111</v>
+        <v>97.70446179007754</v>
       </c>
       <c r="L8" t="n">
-        <v>84.43937323841098</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>61.96574170152374</v>
+        <v>61.40621785032837</v>
       </c>
       <c r="N8" t="n">
-        <v>58.30799968157118</v>
+        <v>57.73942214949929</v>
       </c>
       <c r="O8" t="n">
-        <v>68.52855153510899</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>93.33702908826811</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.7515617259727</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>155.3488742514299</v>
+        <v>89.43228956318676</v>
       </c>
       <c r="S8" t="n">
-        <v>187.1683517435681</v>
+        <v>187.0957390720419</v>
       </c>
       <c r="T8" t="n">
-        <v>218.8981141891969</v>
+        <v>218.8841652272833</v>
       </c>
       <c r="U8" t="n">
-        <v>251.268938155125</v>
+        <v>251.268683234062</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,49 +23114,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8304420216971</v>
+        <v>136.8287370867813</v>
       </c>
       <c r="H9" t="n">
-        <v>107.2802185276682</v>
+        <v>107.2637524457188</v>
       </c>
       <c r="I9" t="n">
-        <v>81.85729289087121</v>
+        <v>71.67284513224863</v>
       </c>
       <c r="J9" t="n">
-        <v>78.36327744147644</v>
+        <v>78.20219848086231</v>
       </c>
       <c r="K9" t="n">
-        <v>54.99105526776093</v>
+        <v>54.71574566779196</v>
       </c>
       <c r="L9" t="n">
-        <v>27.15181451396067</v>
+        <v>26.78162678148755</v>
       </c>
       <c r="M9" t="n">
-        <v>12.13249477623867</v>
+        <v>11.70050315306983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.52261636687632</v>
+        <v>20.11696897926963</v>
       </c>
       <c r="P9" t="n">
-        <v>35.99955868092266</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.48818233773051</v>
+        <v>74.2705488912928</v>
       </c>
       <c r="R9" t="n">
-        <v>113.823838598763</v>
+        <v>113.7179830782926</v>
       </c>
       <c r="S9" t="n">
-        <v>162.1530253831804</v>
+        <v>162.121356964899</v>
       </c>
       <c r="T9" t="n">
-        <v>198.0966758217911</v>
+        <v>198.0898037376351</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9076271374542</v>
+        <v>225.9075149706834</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5608343951249</v>
+        <v>167.559405034964</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4027927425254</v>
+        <v>158.3900844312768</v>
       </c>
       <c r="I10" t="n">
-        <v>142.5148427571804</v>
+        <v>142.4718579988877</v>
       </c>
       <c r="J10" t="n">
-        <v>96.58417253168884</v>
+        <v>62.84687544559104</v>
       </c>
       <c r="K10" t="n">
-        <v>79.03823424865047</v>
+        <v>78.87216858632237</v>
       </c>
       <c r="L10" t="n">
-        <v>70.93385145975894</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>71.49860574063624</v>
+        <v>71.27454703832612</v>
       </c>
       <c r="N10" t="n">
-        <v>61.86163384887251</v>
+        <v>61.64290276170752</v>
       </c>
       <c r="O10" t="n">
-        <v>77.6575030889737</v>
+        <v>77.45546952732447</v>
       </c>
       <c r="P10" t="n">
-        <v>85.70392593829028</v>
+        <v>85.53105132392307</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.4862265633674</v>
+        <v>50.02357876341691</v>
       </c>
       <c r="R10" t="n">
-        <v>157.952509662174</v>
+        <v>157.8882404316673</v>
       </c>
       <c r="S10" t="n">
-        <v>216.5203444486895</v>
+        <v>216.4954345993403</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1076973122184</v>
+        <v>226.1015900460765</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2955669039454</v>
+        <v>286.2954889388457</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23272,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H11" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I11" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S11" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J12" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I13" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K13" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.230949233282</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R13" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S13" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H14" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>133.1811664518765</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J15" t="n">
-        <v>60.52422152698378</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>85.39252213584972</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K16" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S16" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
-        <v>69.70579724700553</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
-        <v>60.52422152698378</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
-        <v>60.52422152698378</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S22" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171739</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J24" t="n">
-        <v>60.52422152698378</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
-        <v>85.39252213584972</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J27" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K28" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343781</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64258426171736</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
-        <v>133.1811664518765</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J30" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K31" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>47.39929435887774</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>46.68471506615327</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J33" t="n">
-        <v>60.52422152698378</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
-        <v>102.1006281848752</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I34" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>85.39252213584972</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K34" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
-        <v>69.70579724700553</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J36" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K37" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J39" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K40" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J42" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I43" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K43" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O43" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>28.74947534450564</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.069265482343809</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>133.1811664518765</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>75.35636030051944</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>102.1006281848752</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>85.39252213584972</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>47.39929435887775</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68471506615329</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.230949233282</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.677023626863955e-12</v>
+        <v>290082.2540978814</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>200826.2321474394</v>
+        <v>281955.8631186832</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>203913.406004969</v>
+        <v>289887.2720085189</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271173.6972136964</v>
+        <v>311808.7260850235</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>271173.6972136964</v>
+        <v>299317.2141855715</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>271173.6972136964</v>
+        <v>302764.6437209757</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>271173.6972136964</v>
+        <v>298632.8095719697</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>271173.6972136964</v>
+        <v>297199.9056916217</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>271173.6972136964</v>
+        <v>314592.3361119157</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>271173.6972136964</v>
+        <v>293904.8816902583</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>271173.6972136964</v>
+        <v>310369.5249639628</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>271173.6972136964</v>
+        <v>313953.3206954788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>271173.6972136964</v>
+        <v>319785.5347964531</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>271173.6972136964</v>
+        <v>319785.5347964531</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>271173.6972136964</v>
+        <v>317429.0006081455</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>57199.3177094414</v>
       </c>
       <c r="C2" t="n">
-        <v>50206.5580368599</v>
+        <v>66203.95005935866</v>
       </c>
       <c r="D2" t="n">
-        <v>50978.35150124226</v>
+        <v>67965.36511801211</v>
       </c>
       <c r="E2" t="n">
-        <v>67793.42430342412</v>
+        <v>75801.43214964299</v>
       </c>
       <c r="F2" t="n">
-        <v>67793.42430342412</v>
+        <v>73338.31712721585</v>
       </c>
       <c r="G2" t="n">
-        <v>67793.42430342412</v>
+        <v>74018.09196518287</v>
       </c>
       <c r="H2" t="n">
-        <v>67793.42430342412</v>
+        <v>73203.36410481547</v>
       </c>
       <c r="I2" t="n">
-        <v>67793.42430342412</v>
+        <v>72920.8196777046</v>
       </c>
       <c r="J2" t="n">
-        <v>67793.42430342412</v>
+        <v>76350.3130000161</v>
       </c>
       <c r="K2" t="n">
-        <v>67793.42430342414</v>
+        <v>72271.09663518226</v>
       </c>
       <c r="L2" t="n">
-        <v>67793.42430342412</v>
+        <v>75517.64601309574</v>
       </c>
       <c r="M2" t="n">
-        <v>67793.42430342412</v>
+        <v>76224.3099601553</v>
       </c>
       <c r="N2" t="n">
-        <v>67793.42430342412</v>
+        <v>77374.32400823472</v>
       </c>
       <c r="O2" t="n">
-        <v>67793.42430342412</v>
+        <v>77374.3240082347</v>
       </c>
       <c r="P2" t="n">
-        <v>67793.42430342412</v>
+        <v>76909.6552950473</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>3215.745576977194</v>
+        <v>3894.578006269833</v>
       </c>
       <c r="E3" t="n">
-        <v>70525.3614094212</v>
+        <v>69778.64573719926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>61284.98326011577</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17140.06288124867</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18025.81153647028</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8602.997486451712</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5963.945676708355</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6692.27586024443</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5819.353152707948</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5516.626980803438</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9191.084111851475</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4820.495149529505</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8298.940911579697</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9056.080854857757</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10288.23876351429</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>10288.23876351429</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9790.379427956341</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>38827.66156583119</v>
+        <v>38844.94123075794</v>
       </c>
       <c r="E5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="F5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>7113.737365803781</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="C6" t="n">
-        <v>-202330.4190718933</v>
+        <v>-219270.2806015819</v>
       </c>
       <c r="D6" t="n">
-        <v>8934.944358433888</v>
+        <v>-8471.340965092164</v>
       </c>
       <c r="E6" t="n">
-        <v>-9845.674471800854</v>
+        <v>-24802.62252727742</v>
       </c>
       <c r="F6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992181</v>
       </c>
       <c r="G6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992185</v>
       </c>
       <c r="H6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992182</v>
       </c>
       <c r="I6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992182</v>
       </c>
       <c r="J6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992183</v>
       </c>
       <c r="K6" t="n">
-        <v>60679.68693762035</v>
+        <v>44976.02320992181</v>
       </c>
       <c r="L6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992179</v>
       </c>
       <c r="M6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992182</v>
       </c>
       <c r="N6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992181</v>
       </c>
       <c r="O6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.0232099218</v>
       </c>
       <c r="P6" t="n">
-        <v>60679.68693762034</v>
+        <v>44976.02320992181</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>238.5349342124398</v>
+        <v>239.327579392566</v>
       </c>
       <c r="E3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="G3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="J3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="K3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="L3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="M3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="N3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="O3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>326.3182277891643</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>3.754896086445567</v>
+        <v>4.547541266571813</v>
       </c>
       <c r="E3" t="n">
-        <v>87.7832935767245</v>
+        <v>86.85385259601875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.9438393492502273</v>
       </c>
       <c r="H5" t="n">
         <v>9.666094735508892</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>36.38736651196943</v>
       </c>
       <c r="J5" t="n">
         <v>80.10718496842655</v>
@@ -31302,25 +31302,25 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>135.7252782213694</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>101.9240315263456</v>
       </c>
       <c r="R5" t="n">
         <v>59.28844852233964</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>21.50773917103958</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.07550714794001817</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.5049985725728933</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>4.877223056164523</v>
       </c>
       <c r="I6" t="n">
         <v>17.38701225744391</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>47.71129057803814</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>81.54619494042198</v>
       </c>
       <c r="L6" t="n">
         <v>109.6489225228995</v>
@@ -31384,16 +31384,16 @@
         <v>120.1520068700076</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>96.43257830122205</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>9.380126994939481</v>
       </c>
       <c r="T6" t="n">
         <v>2.035498632431968</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31448,16 +31448,16 @@
         <v>29.93253043452224</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>49.18834241393779</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>62.94414333627065</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>64.78774396352235</v>
       </c>
       <c r="O7" t="n">
         <v>59.84196775054031</v>
@@ -31475,10 +31475,10 @@
         <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>1.808960949495365</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02309311850419618</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9589344088942294</v>
+        <v>0.9621209221811693</v>
       </c>
       <c r="H8" t="n">
-        <v>9.82068701508803</v>
+        <v>9.853320894287902</v>
       </c>
       <c r="I8" t="n">
-        <v>36.96931879889482</v>
+        <v>37.09216685238957</v>
       </c>
       <c r="J8" t="n">
-        <v>81.38835928688668</v>
+        <v>81.65881061897409</v>
       </c>
       <c r="K8" t="n">
-        <v>121.9800528153794</v>
+        <v>122.385389254903</v>
       </c>
       <c r="L8" t="n">
-        <v>151.3270417315763</v>
+        <v>151.829897427105</v>
       </c>
       <c r="M8" t="n">
-        <v>168.380491525749</v>
+        <v>168.9400153769444</v>
       </c>
       <c r="N8" t="n">
-        <v>171.1050639150197</v>
+        <v>171.6736414470916</v>
       </c>
       <c r="O8" t="n">
-        <v>161.5696598865777</v>
+        <v>162.1065515271526</v>
       </c>
       <c r="P8" t="n">
-        <v>137.8959666670014</v>
+        <v>138.354191260805</v>
       </c>
       <c r="Q8" t="n">
-        <v>103.5541281484768</v>
+        <v>103.8982357351918</v>
       </c>
       <c r="R8" t="n">
-        <v>60.2366635627022</v>
+        <v>60.43682837796293</v>
       </c>
       <c r="S8" t="n">
-        <v>21.85171784267728</v>
+        <v>21.92433051420342</v>
       </c>
       <c r="T8" t="n">
-        <v>4.197735374934492</v>
+        <v>4.21168433684807</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07671475271153834</v>
+        <v>0.07696967377449353</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5130751415135497</v>
+        <v>0.514780076429293</v>
       </c>
       <c r="H9" t="n">
-        <v>4.95522570882823</v>
+        <v>4.971691790777646</v>
       </c>
       <c r="I9" t="n">
-        <v>17.6650871091288</v>
+        <v>17.72378771916645</v>
       </c>
       <c r="J9" t="n">
-        <v>48.47434922519025</v>
+        <v>48.63542818580439</v>
       </c>
       <c r="K9" t="n">
-        <v>82.85038370659807</v>
+        <v>83.12569330656703</v>
       </c>
       <c r="L9" t="n">
-        <v>111.4025652659135</v>
+        <v>111.7727529983866</v>
       </c>
       <c r="M9" t="n">
-        <v>130.0015391457796</v>
+        <v>130.4335307689485</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>122.0736280775681</v>
+        <v>122.4792754651748</v>
       </c>
       <c r="P9" t="n">
-        <v>97.97484873340758</v>
+        <v>98.30041652446737</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.49359174829101</v>
+        <v>65.71122519472871</v>
       </c>
       <c r="R9" t="n">
-        <v>31.85566536520093</v>
+        <v>31.96152088567138</v>
       </c>
       <c r="S9" t="n">
-        <v>9.530145720657375</v>
+        <v>9.561814138938836</v>
       </c>
       <c r="T9" t="n">
-        <v>2.068052873030491</v>
+        <v>2.074924957186492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03375494352062829</v>
+        <v>0.03386711029140087</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4301449633339077</v>
+        <v>0.4315743234947911</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8243797649142</v>
+        <v>3.837088076162782</v>
       </c>
       <c r="I10" t="n">
-        <v>12.93563217007788</v>
+        <v>12.97861692837063</v>
       </c>
       <c r="J10" t="n">
-        <v>30.41124890770728</v>
+        <v>30.51230467108173</v>
       </c>
       <c r="K10" t="n">
-        <v>49.9750239218849</v>
+        <v>50.141089584213</v>
       </c>
       <c r="L10" t="n">
-        <v>63.95082482147934</v>
+        <v>64.16333169485287</v>
       </c>
       <c r="M10" t="n">
-        <v>67.42717820696882</v>
+        <v>67.65123690927894</v>
       </c>
       <c r="N10" t="n">
-        <v>65.82391061636068</v>
+        <v>66.04264170352567</v>
       </c>
       <c r="O10" t="n">
-        <v>60.79903536286909</v>
+        <v>61.00106892451832</v>
       </c>
       <c r="P10" t="n">
-        <v>52.02407811085733</v>
+        <v>52.19695272522454</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.0187750660784</v>
+        <v>36.13846448827747</v>
       </c>
       <c r="R10" t="n">
-        <v>19.34088171499552</v>
+        <v>19.40515094550215</v>
       </c>
       <c r="S10" t="n">
-        <v>7.496253588282735</v>
+        <v>7.521163437631949</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83789211606306</v>
+        <v>1.843999382205016</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0234624525454859</v>
+        <v>0.02354041764517045</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H11" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I11" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K11" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L11" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P11" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R11" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S11" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T11" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H12" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I12" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J12" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K12" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31861,19 +31861,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R12" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T12" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H13" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I13" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K13" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M13" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O13" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P13" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R13" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T13" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U13" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H14" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I14" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J14" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K14" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L14" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P14" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S14" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T14" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H15" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I15" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J15" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K15" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32098,19 +32098,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S15" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T15" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I16" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J16" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K16" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N16" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O16" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P16" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R16" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S16" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T16" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32335,19 +32335,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32572,19 +32572,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H23" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I23" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K23" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L23" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P23" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R23" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S23" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T23" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H24" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I24" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J24" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K24" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32809,19 +32809,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R24" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T24" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H25" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I25" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K25" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M25" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O25" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P25" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R25" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T25" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H26" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I26" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K26" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L26" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P26" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R26" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S26" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T26" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H27" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I27" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J27" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K27" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33046,19 +33046,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R27" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T27" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H28" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I28" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J28" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K28" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L28" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M28" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N28" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O28" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P28" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R28" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T28" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H29" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I29" t="n">
-        <v>50.5744059370523</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K29" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L29" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P29" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R29" t="n">
-        <v>82.40437136225566</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S29" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T29" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.70189203713141</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H30" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I30" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J30" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K30" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33283,19 +33283,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R30" t="n">
-        <v>43.57887577908879</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T30" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H31" t="n">
-        <v>5.231790602914802</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I31" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K31" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>87.48538192236055</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M31" t="n">
-        <v>92.24106888145178</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O31" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P31" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R31" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T31" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U31" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H32" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I32" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K32" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L32" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P32" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R32" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S32" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T32" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H33" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I33" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J33" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K33" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33520,19 +33520,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R33" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T33" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H34" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I34" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P34" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R34" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T34" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H35" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I35" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K35" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L35" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P35" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R35" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S35" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T35" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H36" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I36" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J36" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K36" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33757,19 +33757,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R36" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T36" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H37" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I37" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P37" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R37" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T37" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U37" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H38" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I38" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K38" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L38" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P38" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R38" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S38" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T38" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H39" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I39" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J39" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K39" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33994,19 +33994,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R39" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T39" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H40" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I40" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J40" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K40" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L40" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M40" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N40" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O40" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P40" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R40" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T40" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U40" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H41" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I41" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K41" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L41" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P41" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R41" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T41" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H42" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I42" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J42" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K42" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34231,19 +34231,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R42" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T42" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H43" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I43" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K43" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M43" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O43" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P43" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R43" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T43" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U43" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>50.57440593705229</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>82.40437136225565</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34468,19 +34468,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>43.57887577908878</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.231790602914801</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>87.48538192236053</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>92.24106888145177</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36114.06461502427</v>
+        <v>88262.59130226409</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12204903.82479207</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22984264.03540102</v>
+        <v>24256127.46751807</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3498052.163818506</v>
+        <v>2734471.197033415</v>
       </c>
     </row>
     <row r="11">
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390018</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393701</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310819</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>99.3870939077122</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>83.93651754288223</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>67.99165989453411</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>92.87880449446456</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>118.4074541392577</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>35.67399088986288</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>70.72134458638541</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10521,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,31 +22570,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22655,16 +22655,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -22728,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K5" t="n">
         <v>100.0299464227919</v>
@@ -22822,16 +22822,16 @@
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R5" t="n">
-        <v>90.58066941881003</v>
+        <v>156.2970892917925</v>
       </c>
       <c r="S5" t="n">
         <v>187.5123304152058</v>
@@ -22883,31 +22883,31 @@
         <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>72.00962059397116</v>
+        <v>82.13536774255608</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>28.9054572569747</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335148</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443681</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>114.3252943440434</v>
@@ -22965,19 +22965,19 @@
         <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>63.42664968215053</v>
+        <v>97.06289100487388</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496763</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171085</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O7" t="n">
         <v>78.61457070130248</v>
@@ -22986,7 +22986,7 @@
         <v>86.52286261917671</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.71025749466926</v>
+        <v>116.0532158724207</v>
       </c>
       <c r="R7" t="n">
         <v>158.2569640235438</v>
@@ -23044,31 +23044,31 @@
         <v>173.3837227180163</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>99.38709390771217</v>
       </c>
       <c r="K8" t="n">
-        <v>97.70446179007754</v>
+        <v>97.7044617900775</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>83.93651754288217</v>
       </c>
       <c r="M8" t="n">
-        <v>61.40621785032837</v>
+        <v>61.40621785032832</v>
       </c>
       <c r="N8" t="n">
-        <v>57.73942214949929</v>
+        <v>57.73942214949923</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>67.99165989453405</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>92.87880449446453</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>118.4074541392576</v>
       </c>
       <c r="R8" t="n">
-        <v>89.43228956318676</v>
+        <v>155.1487094361692</v>
       </c>
       <c r="S8" t="n">
         <v>187.0957390720419</v>
@@ -23120,31 +23120,31 @@
         <v>107.2637524457188</v>
       </c>
       <c r="I9" t="n">
-        <v>71.67284513224863</v>
+        <v>81.79859228083355</v>
       </c>
       <c r="J9" t="n">
-        <v>78.20219848086231</v>
+        <v>78.20219848086228</v>
       </c>
       <c r="K9" t="n">
-        <v>54.71574566779196</v>
+        <v>54.71574566779194</v>
       </c>
       <c r="L9" t="n">
-        <v>26.78162678148755</v>
+        <v>26.7816267814875</v>
       </c>
       <c r="M9" t="n">
-        <v>11.70050315306983</v>
+        <v>11.7005031530698</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.11696897926963</v>
+        <v>20.11696897926959</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.67399088986284</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.2705488912928</v>
+        <v>74.27054889129279</v>
       </c>
       <c r="R9" t="n">
         <v>113.7179830782926</v>
@@ -23202,28 +23202,28 @@
         <v>142.4718579988877</v>
       </c>
       <c r="J10" t="n">
-        <v>62.84687544559104</v>
+        <v>96.48311676831437</v>
       </c>
       <c r="K10" t="n">
-        <v>78.87216858632237</v>
+        <v>78.87216858632236</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>70.72134458638538</v>
       </c>
       <c r="M10" t="n">
-        <v>71.27454703832612</v>
+        <v>71.27454703832609</v>
       </c>
       <c r="N10" t="n">
-        <v>61.64290276170752</v>
+        <v>61.64290276170749</v>
       </c>
       <c r="O10" t="n">
-        <v>77.45546952732447</v>
+        <v>77.45546952732445</v>
       </c>
       <c r="P10" t="n">
         <v>85.53105132392307</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.02357876341691</v>
+        <v>115.3665371411684</v>
       </c>
       <c r="R10" t="n">
         <v>157.8882404316673</v>
@@ -23281,7 +23281,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
         <v>53.28984570098882</v>
@@ -23302,10 +23302,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S11" t="n">
         <v>179.1392278518137</v>
@@ -23357,10 +23357,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
         <v>24.54878065809741</v>
@@ -23384,7 +23384,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S12" t="n">
         <v>158.6512997408977</v>
@@ -23439,7 +23439,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K13" t="n">
         <v>60.67557455063191</v>
@@ -23518,7 +23518,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
         <v>53.28984570098882</v>
@@ -23539,7 +23539,7 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
         <v>133.2157111723112</v>
@@ -23594,7 +23594,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J15" t="n">
         <v>60.55202075660908</v>
@@ -23621,7 +23621,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S15" t="n">
         <v>158.6512997408977</v>
@@ -23697,7 +23697,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R16" t="n">
         <v>150.8459592031442</v>
@@ -23776,10 +23776,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S17" t="n">
         <v>179.1392278518137</v>
@@ -23831,7 +23831,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J18" t="n">
         <v>60.55202075660908</v>
@@ -23858,7 +23858,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S18" t="n">
         <v>158.6512997408977</v>
@@ -23913,10 +23913,10 @@
         <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
         <v>47.4359690887577</v>
@@ -23934,7 +23934,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R19" t="n">
         <v>150.8459592031442</v>
@@ -23992,7 +23992,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
         <v>53.28984570098882</v>
@@ -24016,7 +24016,7 @@
         <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S20" t="n">
         <v>179.1392278518137</v>
@@ -24068,7 +24068,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J21" t="n">
         <v>60.55202075660908</v>
@@ -24095,7 +24095,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S21" t="n">
         <v>158.6512997408977</v>
@@ -24150,7 +24150,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K22" t="n">
         <v>60.67557455063191</v>
@@ -24171,7 +24171,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R22" t="n">
         <v>150.8459592031442</v>
@@ -24229,16 +24229,16 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S23" t="n">
         <v>179.1392278518137</v>
@@ -24305,7 +24305,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J24" t="n">
         <v>60.55202075660908</v>
@@ -24332,7 +24332,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S24" t="n">
         <v>158.6512997408977</v>
@@ -24393,13 +24393,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M25" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O25" t="n">
         <v>55.31770395088348</v>
@@ -24408,7 +24408,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R25" t="n">
         <v>150.8459592031442</v>
@@ -24466,7 +24466,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
         <v>53.28984570098882</v>
@@ -24487,10 +24487,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S26" t="n">
         <v>179.1392278518137</v>
@@ -24542,10 +24542,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
         <v>24.54878065809741</v>
@@ -24569,7 +24569,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S27" t="n">
         <v>158.6512997408977</v>
@@ -24624,7 +24624,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K28" t="n">
         <v>60.67557455063191</v>
@@ -24645,7 +24645,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R28" t="n">
         <v>150.8459592031442</v>
@@ -24703,7 +24703,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
         <v>53.28984570098882</v>
@@ -24779,10 +24779,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
         <v>24.54878065809741</v>
@@ -24806,7 +24806,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S30" t="n">
         <v>158.6512997408977</v>
@@ -24861,7 +24861,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K31" t="n">
         <v>60.67557455063191</v>
@@ -24882,7 +24882,7 @@
         <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R31" t="n">
         <v>150.8459592031442</v>
@@ -24940,7 +24940,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
         <v>53.28984570098882</v>
@@ -24961,10 +24961,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S32" t="n">
         <v>179.1392278518137</v>
@@ -25016,7 +25016,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J33" t="n">
         <v>60.55202075660908</v>
@@ -25113,13 +25113,13 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R34" t="n">
         <v>150.8459592031442</v>
@@ -25198,10 +25198,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S35" t="n">
         <v>179.1392278518137</v>
@@ -25253,10 +25253,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
         <v>24.54878065809741</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S36" t="n">
         <v>158.6512997408977</v>
@@ -25335,10 +25335,10 @@
         <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
         <v>47.4359690887577</v>
@@ -25353,10 +25353,10 @@
         <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R37" t="n">
         <v>150.8459592031442</v>
@@ -25414,7 +25414,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
         <v>53.28984570098882</v>
@@ -25435,10 +25435,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S38" t="n">
         <v>179.1392278518137</v>
@@ -25490,10 +25490,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
         <v>24.54878065809741</v>
@@ -25517,7 +25517,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S39" t="n">
         <v>158.6512997408977</v>
@@ -25572,7 +25572,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K40" t="n">
         <v>60.67557455063191</v>
@@ -25587,13 +25587,13 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R40" t="n">
         <v>150.8459592031442</v>
@@ -25651,7 +25651,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
         <v>53.28984570098882</v>
@@ -25672,10 +25672,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S41" t="n">
         <v>179.1392278518137</v>
@@ -25727,10 +25727,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
         <v>24.54878065809741</v>
@@ -25754,7 +25754,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S42" t="n">
         <v>158.6512997408977</v>
@@ -25809,7 +25809,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K43" t="n">
         <v>60.67557455063191</v>
@@ -25824,13 +25824,13 @@
         <v>37.67551094615366</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R43" t="n">
         <v>150.8459592031442</v>
@@ -25888,7 +25888,7 @@
         <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
         <v>53.28984570098882</v>
@@ -25909,10 +25909,10 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S44" t="n">
         <v>179.1392278518137</v>
@@ -25964,10 +25964,10 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
         <v>24.54878065809741</v>
@@ -25991,7 +25991,7 @@
         <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S45" t="n">
         <v>158.6512997408977</v>
@@ -26046,7 +26046,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K46" t="n">
         <v>60.67557455063191</v>
@@ -26064,10 +26064,10 @@
         <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R46" t="n">
         <v>150.8459592031442</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290082.2540978814</v>
+        <v>-9.677023626863955e-12</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>281955.8631186832</v>
+        <v>200826.2321474394</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>289887.2720085189</v>
+        <v>204565.0974025594</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>311808.7260850235</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>299317.2141855715</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>302764.6437209757</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>298632.8095719697</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>297199.9056916217</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>314592.3361119157</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>293904.8816902583</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>310369.5249639628</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>313953.3206954788</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>319785.5347964531</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>319785.5347964531</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>317429.0006081455</v>
+        <v>271087.8713158187</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57199.3177094414</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>66203.95005935866</v>
+        <v>50206.5580368599</v>
       </c>
       <c r="D2" t="n">
-        <v>67965.36511801211</v>
+        <v>51141.27435063988</v>
       </c>
       <c r="E2" t="n">
-        <v>75801.43214964299</v>
+        <v>67771.96782895469</v>
       </c>
       <c r="F2" t="n">
-        <v>73338.31712721585</v>
+        <v>67771.9678289547</v>
       </c>
       <c r="G2" t="n">
-        <v>74018.09196518287</v>
+        <v>67771.9678289547</v>
       </c>
       <c r="H2" t="n">
-        <v>73203.36410481547</v>
+        <v>67771.96782895473</v>
       </c>
       <c r="I2" t="n">
-        <v>72920.8196777046</v>
+        <v>67771.96782895469</v>
       </c>
       <c r="J2" t="n">
-        <v>76350.3130000161</v>
+        <v>67771.9678289547</v>
       </c>
       <c r="K2" t="n">
-        <v>72271.09663518226</v>
+        <v>67771.96782895473</v>
       </c>
       <c r="L2" t="n">
-        <v>75517.64601309574</v>
+        <v>67771.96782895472</v>
       </c>
       <c r="M2" t="n">
-        <v>76224.3099601553</v>
+        <v>67771.96782895472</v>
       </c>
       <c r="N2" t="n">
-        <v>77374.32400823472</v>
+        <v>67771.96782895473</v>
       </c>
       <c r="O2" t="n">
-        <v>77374.3240082347</v>
+        <v>67771.96782895469</v>
       </c>
       <c r="P2" t="n">
-        <v>76909.6552950473</v>
+        <v>67771.96782895469</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>3894.578006269833</v>
+        <v>3894.578006269939</v>
       </c>
       <c r="E3" t="n">
-        <v>69778.64573719926</v>
+        <v>69778.64573719917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61284.98326011577</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17140.06288124867</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18025.81153647028</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8602.997486451712</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5963.945676708355</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6692.27586024443</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5819.353152707948</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5516.626980803438</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9191.084111851475</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4820.495149529505</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8298.940911579697</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9056.080854857757</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10288.23876351429</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10288.23876351429</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9790.379427956341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660707</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-219270.2806015819</v>
+        <v>-204024.4052248622</v>
       </c>
       <c r="D6" t="n">
-        <v>-8471.340965092164</v>
+        <v>6714.445505741578</v>
       </c>
       <c r="E6" t="n">
-        <v>-24802.62252727742</v>
+        <v>-10685.95206576381</v>
       </c>
       <c r="F6" t="n">
-        <v>44976.02320992181</v>
+        <v>59092.69367143537</v>
       </c>
       <c r="G6" t="n">
-        <v>44976.02320992185</v>
+        <v>59092.69367143537</v>
       </c>
       <c r="H6" t="n">
-        <v>44976.02320992182</v>
+        <v>59092.6936714354</v>
       </c>
       <c r="I6" t="n">
-        <v>44976.02320992182</v>
+        <v>59092.69367143536</v>
       </c>
       <c r="J6" t="n">
-        <v>44976.02320992183</v>
+        <v>59092.69367143537</v>
       </c>
       <c r="K6" t="n">
-        <v>44976.02320992181</v>
+        <v>59092.6936714354</v>
       </c>
       <c r="L6" t="n">
-        <v>44976.02320992179</v>
+        <v>59092.69367143539</v>
       </c>
       <c r="M6" t="n">
-        <v>44976.02320992182</v>
+        <v>59092.69367143539</v>
       </c>
       <c r="N6" t="n">
-        <v>44976.02320992181</v>
+        <v>59092.6936714354</v>
       </c>
       <c r="O6" t="n">
-        <v>44976.0232099218</v>
+        <v>59092.69367143536</v>
       </c>
       <c r="P6" t="n">
-        <v>44976.02320992181</v>
+        <v>59092.69367143536</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>239.327579392566</v>
+        <v>239.3275793925661</v>
       </c>
       <c r="E3" t="n">
         <v>326.1814319885848</v>
@@ -26965,10 +26965,10 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547541266571813</v>
+        <v>4.547541266571937</v>
       </c>
       <c r="E3" t="n">
-        <v>86.85385259601875</v>
+        <v>86.85385259601865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502273</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H5" t="n">
         <v>9.666094735508892</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196943</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J5" t="n">
         <v>80.10718496842655</v>
@@ -31302,25 +31302,25 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213694</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263456</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R5" t="n">
         <v>59.28844852233964</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103958</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001817</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728933</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164523</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I6" t="n">
         <v>17.38701225744391</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803814</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042198</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L6" t="n">
         <v>109.6489225228995</v>
@@ -31384,16 +31384,16 @@
         <v>120.1520068700076</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122205</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939481</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T6" t="n">
         <v>2.035498632431968</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31448,16 +31448,16 @@
         <v>29.93253043452224</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393779</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627065</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352235</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O7" t="n">
         <v>59.84196775054031</v>
@@ -31475,10 +31475,10 @@
         <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495365</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419618</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9621209221811693</v>
+        <v>0.9621209221811696</v>
       </c>
       <c r="H8" t="n">
-        <v>9.853320894287902</v>
+        <v>9.853320894287906</v>
       </c>
       <c r="I8" t="n">
         <v>37.09216685238957</v>
       </c>
       <c r="J8" t="n">
-        <v>81.65881061897409</v>
+        <v>81.65881061897412</v>
       </c>
       <c r="K8" t="n">
         <v>122.385389254903</v>
       </c>
       <c r="L8" t="n">
-        <v>151.829897427105</v>
+        <v>151.8298974271051</v>
       </c>
       <c r="M8" t="n">
         <v>168.9400153769444</v>
       </c>
       <c r="N8" t="n">
-        <v>171.6736414470916</v>
+        <v>171.6736414470917</v>
       </c>
       <c r="O8" t="n">
-        <v>162.1065515271526</v>
+        <v>162.1065515271527</v>
       </c>
       <c r="P8" t="n">
         <v>138.354191260805</v>
@@ -31548,16 +31548,16 @@
         <v>103.8982357351918</v>
       </c>
       <c r="R8" t="n">
-        <v>60.43682837796293</v>
+        <v>60.43682837796295</v>
       </c>
       <c r="S8" t="n">
-        <v>21.92433051420342</v>
+        <v>21.92433051420343</v>
       </c>
       <c r="T8" t="n">
-        <v>4.21168433684807</v>
+        <v>4.211684336848072</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07696967377449353</v>
+        <v>0.07696967377449355</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.514780076429293</v>
+        <v>0.5147800764292931</v>
       </c>
       <c r="H9" t="n">
-        <v>4.971691790777646</v>
+        <v>4.971691790777648</v>
       </c>
       <c r="I9" t="n">
-        <v>17.72378771916645</v>
+        <v>17.72378771916646</v>
       </c>
       <c r="J9" t="n">
-        <v>48.63542818580439</v>
+        <v>48.63542818580441</v>
       </c>
       <c r="K9" t="n">
-        <v>83.12569330656703</v>
+        <v>83.12569330656706</v>
       </c>
       <c r="L9" t="n">
-        <v>111.7727529983866</v>
+        <v>111.7727529983867</v>
       </c>
       <c r="M9" t="n">
         <v>130.4335307689485</v>
@@ -31618,25 +31618,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>122.4792754651748</v>
+        <v>122.4792754651749</v>
       </c>
       <c r="P9" t="n">
-        <v>98.30041652446737</v>
+        <v>98.30041652446741</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.71122519472871</v>
+        <v>65.71122519472873</v>
       </c>
       <c r="R9" t="n">
-        <v>31.96152088567138</v>
+        <v>31.96152088567139</v>
       </c>
       <c r="S9" t="n">
-        <v>9.561814138938836</v>
+        <v>9.561814138938839</v>
       </c>
       <c r="T9" t="n">
-        <v>2.074924957186492</v>
+        <v>2.074924957186493</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03386711029140087</v>
+        <v>0.03386711029140088</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4315743234947911</v>
+        <v>0.4315743234947913</v>
       </c>
       <c r="H10" t="n">
-        <v>3.837088076162782</v>
+        <v>3.837088076162784</v>
       </c>
       <c r="I10" t="n">
-        <v>12.97861692837063</v>
+        <v>12.97861692837064</v>
       </c>
       <c r="J10" t="n">
-        <v>30.51230467108173</v>
+        <v>30.51230467108174</v>
       </c>
       <c r="K10" t="n">
-        <v>50.141089584213</v>
+        <v>50.14108958421302</v>
       </c>
       <c r="L10" t="n">
-        <v>64.16333169485287</v>
+        <v>64.1633316948529</v>
       </c>
       <c r="M10" t="n">
-        <v>67.65123690927894</v>
+        <v>67.65123690927896</v>
       </c>
       <c r="N10" t="n">
-        <v>66.04264170352567</v>
+        <v>66.0426417035257</v>
       </c>
       <c r="O10" t="n">
-        <v>61.00106892451832</v>
+        <v>61.00106892451834</v>
       </c>
       <c r="P10" t="n">
-        <v>52.19695272522454</v>
+        <v>52.19695272522456</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.13846448827747</v>
+        <v>36.13846448827749</v>
       </c>
       <c r="R10" t="n">
-        <v>19.40515094550215</v>
+        <v>19.40515094550216</v>
       </c>
       <c r="S10" t="n">
-        <v>7.521163437631949</v>
+        <v>7.521163437631952</v>
       </c>
       <c r="T10" t="n">
-        <v>1.843999382205016</v>
+        <v>1.843999382205017</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02354041764517045</v>
+        <v>0.02354041764517046</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32718,7 +32718,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -32867,19 +32867,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K25" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M25" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O25" t="n">
         <v>83.13883450095931</v>
